--- a/to_predict/verified_07292020.xlsx
+++ b/to_predict/verified_07292020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholamerkel/Library/Containers/com.microsoft.Excel/Data/Desktop/Work/NGC/sentiment analysis/covid/albert/to_predict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2C53AF-BACA-C14A-8F29-B42CFB19FFEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF2B718-1558-2845-A796-ECBF6A5247D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="1060" windowWidth="22380" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="1060" windowWidth="22380" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="825">
   <si>
     <t>text</t>
   </si>
@@ -2502,6 +2502,9 @@
   </si>
   <si>
     <t>prediction %</t>
+  </si>
+  <si>
+    <t>**predictions made with covid_output_unclean</t>
   </si>
 </sst>
 </file>
@@ -2870,7 +2873,7 @@
   <dimension ref="A1:O823"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2965,6 +2968,9 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="E6" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
